--- a/Courses_Catalogue.xlsx
+++ b/Courses_Catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763A44C6-6795-45CF-B410-77A5E5416774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E4CCEA-3B2F-400D-BC63-1944271FF578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId6"/>
-    <pivotCache cacheId="49" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="1593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="1593">
   <si>
     <t>course</t>
   </si>
@@ -4903,7 +4903,14 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -14523,7 +14530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A4833FD-14E0-4603-8175-16B562C477C6}" name="PivotTable25" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A4833FD-14E0-4603-8175-16B562C477C6}" name="PivotTable25" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -14679,7 +14686,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{879B3C03-80B1-4537-B729-AC295EC46B9E}" name="PivotTable36" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{879B3C03-80B1-4537-B729-AC295EC46B9E}" name="PivotTable36" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -14840,7 +14847,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{69BFA7F0-14CA-4524-9FEE-961C45F607E8}" name="Course"/>
     <tableColumn id="2" xr3:uid="{D387A213-1D9E-4AAE-B952-3F4835BFC23D}" name="University"/>
-    <tableColumn id="3" xr3:uid="{E229EF7A-FF65-4656-BF65-D1FA759DE5B2}" name="Enrollments" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{E229EF7A-FF65-4656-BF65-D1FA759DE5B2}" name="Enrollments" dataDxfId="1" dataCellStyle="Comma"/>
     <tableColumn id="4" xr3:uid="{599B57F3-7D00-45EC-99B4-C821033FC91D}" name="Ratings"/>
     <tableColumn id="5" xr3:uid="{622DB2CE-A88E-41A0-89F2-417F15B2ABAB}" name="Overall_Students"/>
   </tableColumns>
@@ -30138,10 +30145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F1B143-4C5C-49EE-B544-83EE29AA1E5B}">
-  <dimension ref="A1:E525"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A487" sqref="A487"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30151,9 +30158,10 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1586</v>
       </c>
@@ -30169,8 +30177,14 @@
       <c r="E1" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>CLEAN(TRIM(Sheet1!A79))</f>
         <v>Análise de dados com Python</v>
@@ -30192,7 +30206,7 @@
         <v>2.1k</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>CLEAN(TRIM(Sheet1!A782))</f>
         <v>M2M &amp; IoT Interface Design &amp; Protocols for Embedded Systems</v>
@@ -30214,7 +30228,7 @@
         <v>1.5k</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>CLEAN(TRIM(Sheet1!A683))</f>
         <v>Building Modern .NET Applications on AWS</v>
@@ -30236,7 +30250,7 @@
         <v>1.9k</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>CLEAN(TRIM(Sheet1!A491))</f>
         <v>Data and Statistics Foundation for Investment Professionals</v>
@@ -30258,7 +30272,7 @@
         <v>1.5k</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>CLEAN(TRIM(Sheet1!A592))</f>
         <v>Data Analytics Foundations for Accountancy II</v>
@@ -30280,7 +30294,7 @@
         <v>3k</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>CLEAN(TRIM(Sheet1!A35))</f>
         <v>Data Science for Investment Professionals</v>
@@ -30302,7 +30316,7 @@
         <v>1.8k</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>CLEAN(TRIM(Sheet1!A680))</f>
         <v>Prediction Models with Sports Data</v>
@@ -30324,7 +30338,7 @@
         <v>1.7k</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>CLEAN(TRIM(Sheet1!A790))</f>
         <v>Introducción al procesamiento de lenguaje natural</v>
@@ -30346,7 +30360,7 @@
         <v>1.8k</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>CLEAN(TRIM(Sheet1!A694))</f>
         <v>Functional Programming Principles in Scala (Scala 2 version)</v>
@@ -30368,7 +30382,7 @@
         <v>1.9k</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>CLEAN(TRIM(Sheet1!A173))</f>
         <v>Using SAS Viya REST APIs with Python and R</v>
@@ -30390,7 +30404,7 @@
         <v>3.1k</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>CLEAN(TRIM(Sheet1!A493))</f>
         <v>Data Science and Analysis Tools - from Jupyter to R Markdown</v>
@@ -30412,7 +30426,7 @@
         <v>3.5k</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>CLEAN(TRIM(Sheet1!A262))</f>
         <v>Hypothesis Testing with Python and Excel</v>
@@ -30434,7 +30448,7 @@
         <v>2.2k</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>CLEAN(TRIM(Sheet1!A370))</f>
         <v>Advanced Django: Building a Blog</v>
@@ -30456,7 +30470,7 @@
         <v>1.6k</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>CLEAN(TRIM(Sheet1!A76))</f>
         <v>Practical Python for AI Coding 1</v>
@@ -30478,7 +30492,7 @@
         <v>2k</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>CLEAN(TRIM(Sheet1!A766))</f>
         <v>Resolución de problemas por búsqueda</v>
@@ -41699,6 +41713,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:E525">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H$1=$B2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -41710,7 +41729,7 @@
           <x14:formula1>
             <xm:f>Sheet3!$A$2:$A$67</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B525</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
